--- a/data/7203.xlsx
+++ b/data/7203.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43797,6 +43797,43 @@
         </is>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>7203</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>WANGZNG</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="I1218" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7203.xlsx
+++ b/data/7203.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43834,6 +43834,41 @@
         </is>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>7203</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>WANGZNG</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.955</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.955</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>13000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7203.xlsx
+++ b/data/7203.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43869,6 +43869,43 @@
         <v>13000</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>7203</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>WANGZNG</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.955</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.955</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.955</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.955</v>
+      </c>
+      <c r="I1220" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7203.xlsx
+++ b/data/7203.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43906,6 +43906,43 @@
         </is>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>7203</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>WANGZNG</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.955</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.955</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.955</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.955</v>
+      </c>
+      <c r="I1221" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7203.xlsx
+++ b/data/7203.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43943,6 +43943,43 @@
         </is>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>7203</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>WANGZNG</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.955</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.955</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.955</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.955</v>
+      </c>
+      <c r="I1222" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7203.xlsx
+++ b/data/7203.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43980,6 +43980,41 @@
         </is>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>7203</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>WANGZNG</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.955</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>19300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7203.xlsx
+++ b/data/7203.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44015,6 +44015,41 @@
         <v>19300</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>7203</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>WANGZNG</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>3500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7203.xlsx
+++ b/data/7203.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44050,6 +44050,41 @@
         <v>3500</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>7203</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>WANGZNG</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>14500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7203.xlsx
+++ b/data/7203.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44085,6 +44085,41 @@
         <v>14500</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>7203</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>WANGZNG</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7203.xlsx
+++ b/data/7203.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44120,6 +44120,41 @@
         <v>500</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>7203</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>WANGZNG</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>12900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7203.xlsx
+++ b/data/7203.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44155,6 +44155,41 @@
         <v>12900</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>7203</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>WANGZNG</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>1800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7203.xlsx
+++ b/data/7203.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44190,6 +44190,41 @@
         <v>1800</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>7203</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>WANGZNG</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>1800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7203.xlsx
+++ b/data/7203.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44225,6 +44225,76 @@
         <v>1800</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>7203</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>WANGZNG</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>7203</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>WANGZNG</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.835</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>40400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7203.xlsx
+++ b/data/7203.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44295,6 +44295,76 @@
         <v>40400</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>7203</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>WANGZNG</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>7800</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>7203</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>WANGZNG</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>6100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7203.xlsx
+++ b/data/7203.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44365,6 +44365,43 @@
         <v>6100</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>7203</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>WANGZNG</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="I1234" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7203.xlsx
+++ b/data/7203.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44402,6 +44402,41 @@
         </is>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>7203</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>WANGZNG</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>6000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7203.xlsx
+++ b/data/7203.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44437,6 +44437,43 @@
         <v>6000</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>7203</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>WANGZNG</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="I1236" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7203.xlsx
+++ b/data/7203.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44474,6 +44474,43 @@
         </is>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>7203</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>WANGZNG</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="I1237" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7203.xlsx
+++ b/data/7203.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44511,6 +44511,78 @@
         </is>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>7203</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>WANGZNG</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="I1238" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>7203</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>WANGZNG</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>21900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7203.xlsx
+++ b/data/7203.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44583,6 +44583,41 @@
         <v>21900</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>7203</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>WANGZNG</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>7500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7203.xlsx
+++ b/data/7203.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44618,6 +44618,43 @@
         <v>7500</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>7203</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>WANGZNG</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="I1241" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7203.xlsx
+++ b/data/7203.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1759"/>
+  <dimension ref="A1:I1760"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62785,6 +62785,41 @@
         </is>
       </c>
     </row>
+    <row r="1760">
+      <c r="A1760" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B1760" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C1760" t="inlineStr">
+        <is>
+          <t>7203</t>
+        </is>
+      </c>
+      <c r="D1760" t="inlineStr">
+        <is>
+          <t>WANGZNG</t>
+        </is>
+      </c>
+      <c r="E1760" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1760" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G1760" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H1760" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I1760" t="n">
+        <v>111300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7203.xlsx
+++ b/data/7203.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1760"/>
+  <dimension ref="A1:I1761"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62820,6 +62820,41 @@
         <v>111300</v>
       </c>
     </row>
+    <row r="1761">
+      <c r="A1761" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B1761" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C1761" t="inlineStr">
+        <is>
+          <t>7203</t>
+        </is>
+      </c>
+      <c r="D1761" t="inlineStr">
+        <is>
+          <t>WANGZNG</t>
+        </is>
+      </c>
+      <c r="E1761" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="F1761" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="G1761" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="H1761" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="I1761" t="n">
+        <v>28000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7203.xlsx
+++ b/data/7203.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1761"/>
+  <dimension ref="A1:I1762"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62855,6 +62855,41 @@
         <v>28000</v>
       </c>
     </row>
+    <row r="1762">
+      <c r="A1762" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B1762" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C1762" t="inlineStr">
+        <is>
+          <t>7203</t>
+        </is>
+      </c>
+      <c r="D1762" t="inlineStr">
+        <is>
+          <t>WANGZNG</t>
+        </is>
+      </c>
+      <c r="E1762" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="F1762" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="G1762" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="H1762" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="I1762" t="n">
+        <v>5000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7203.xlsx
+++ b/data/7203.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1762"/>
+  <dimension ref="A1:I1763"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62890,6 +62890,43 @@
         <v>5000</v>
       </c>
     </row>
+    <row r="1763">
+      <c r="A1763" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B1763" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C1763" t="inlineStr">
+        <is>
+          <t>7203</t>
+        </is>
+      </c>
+      <c r="D1763" t="inlineStr">
+        <is>
+          <t>WANGZNG</t>
+        </is>
+      </c>
+      <c r="E1763" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="F1763" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="G1763" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="H1763" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="I1763" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7203.xlsx
+++ b/data/7203.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1763"/>
+  <dimension ref="A1:I1764"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62927,6 +62927,41 @@
         </is>
       </c>
     </row>
+    <row r="1764">
+      <c r="A1764" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B1764" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C1764" t="inlineStr">
+        <is>
+          <t>7203</t>
+        </is>
+      </c>
+      <c r="D1764" t="inlineStr">
+        <is>
+          <t>WANGZNG</t>
+        </is>
+      </c>
+      <c r="E1764" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="F1764" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="G1764" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="H1764" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="I1764" t="n">
+        <v>16100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7203.xlsx
+++ b/data/7203.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1764"/>
+  <dimension ref="A1:I1765"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62962,6 +62962,43 @@
         <v>16100</v>
       </c>
     </row>
+    <row r="1765">
+      <c r="A1765" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B1765" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C1765" t="inlineStr">
+        <is>
+          <t>7203</t>
+        </is>
+      </c>
+      <c r="D1765" t="inlineStr">
+        <is>
+          <t>WANGZNG</t>
+        </is>
+      </c>
+      <c r="E1765" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="F1765" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="G1765" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="H1765" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="I1765" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7203.xlsx
+++ b/data/7203.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1765"/>
+  <dimension ref="A1:I1766"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62999,6 +62999,43 @@
         </is>
       </c>
     </row>
+    <row r="1766">
+      <c r="A1766" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B1766" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C1766" t="inlineStr">
+        <is>
+          <t>7203</t>
+        </is>
+      </c>
+      <c r="D1766" t="inlineStr">
+        <is>
+          <t>WANGZNG</t>
+        </is>
+      </c>
+      <c r="E1766" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="F1766" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="G1766" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="H1766" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="I1766" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7203.xlsx
+++ b/data/7203.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1766"/>
+  <dimension ref="A1:I1767"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63036,6 +63036,41 @@
         </is>
       </c>
     </row>
+    <row r="1767">
+      <c r="A1767" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B1767" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C1767" t="inlineStr">
+        <is>
+          <t>7203</t>
+        </is>
+      </c>
+      <c r="D1767" t="inlineStr">
+        <is>
+          <t>WANGZNG</t>
+        </is>
+      </c>
+      <c r="E1767" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F1767" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G1767" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="H1767" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I1767" t="n">
+        <v>20000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7203.xlsx
+++ b/data/7203.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1767"/>
+  <dimension ref="A1:I1768"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63071,6 +63071,43 @@
         <v>20000</v>
       </c>
     </row>
+    <row r="1768">
+      <c r="A1768" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B1768" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C1768" t="inlineStr">
+        <is>
+          <t>7203</t>
+        </is>
+      </c>
+      <c r="D1768" t="inlineStr">
+        <is>
+          <t>WANGZNG</t>
+        </is>
+      </c>
+      <c r="E1768" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1768" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G1768" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H1768" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I1768" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7203.xlsx
+++ b/data/7203.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1768"/>
+  <dimension ref="A1:I1769"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63108,6 +63108,43 @@
         </is>
       </c>
     </row>
+    <row r="1769">
+      <c r="A1769" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B1769" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C1769" t="inlineStr">
+        <is>
+          <t>7203</t>
+        </is>
+      </c>
+      <c r="D1769" t="inlineStr">
+        <is>
+          <t>WANGZNG</t>
+        </is>
+      </c>
+      <c r="E1769" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1769" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G1769" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H1769" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I1769" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7203.xlsx
+++ b/data/7203.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1769"/>
+  <dimension ref="A1:I1770"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63145,6 +63145,41 @@
         </is>
       </c>
     </row>
+    <row r="1770">
+      <c r="A1770" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B1770" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C1770" t="inlineStr">
+        <is>
+          <t>7203</t>
+        </is>
+      </c>
+      <c r="D1770" t="inlineStr">
+        <is>
+          <t>WANGZNG</t>
+        </is>
+      </c>
+      <c r="E1770" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="F1770" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="G1770" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="H1770" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="I1770" t="n">
+        <v>19000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7203.xlsx
+++ b/data/7203.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1770"/>
+  <dimension ref="A1:I1771"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63180,6 +63180,41 @@
         <v>19000</v>
       </c>
     </row>
+    <row r="1771">
+      <c r="A1771" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B1771" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C1771" t="inlineStr">
+        <is>
+          <t>7203</t>
+        </is>
+      </c>
+      <c r="D1771" t="inlineStr">
+        <is>
+          <t>WANGZNG</t>
+        </is>
+      </c>
+      <c r="E1771" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="F1771" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G1771" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="H1771" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="I1771" t="n">
+        <v>17000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7203.xlsx
+++ b/data/7203.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1771"/>
+  <dimension ref="A1:I1772"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63215,6 +63215,41 @@
         <v>17000</v>
       </c>
     </row>
+    <row r="1772">
+      <c r="A1772" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B1772" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C1772" t="inlineStr">
+        <is>
+          <t>7203</t>
+        </is>
+      </c>
+      <c r="D1772" t="inlineStr">
+        <is>
+          <t>WANGZNG</t>
+        </is>
+      </c>
+      <c r="E1772" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="F1772" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="G1772" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="H1772" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="I1772" t="n">
+        <v>1000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7203.xlsx
+++ b/data/7203.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1772"/>
+  <dimension ref="A1:I1773"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63250,6 +63250,41 @@
         <v>1000</v>
       </c>
     </row>
+    <row r="1773">
+      <c r="A1773" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B1773" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C1773" t="inlineStr">
+        <is>
+          <t>7203</t>
+        </is>
+      </c>
+      <c r="D1773" t="inlineStr">
+        <is>
+          <t>WANGZNG</t>
+        </is>
+      </c>
+      <c r="E1773" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F1773" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="G1773" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="H1773" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="I1773" t="n">
+        <v>170000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7203.xlsx
+++ b/data/7203.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1773"/>
+  <dimension ref="A1:I1774"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63285,6 +63285,41 @@
         <v>170000</v>
       </c>
     </row>
+    <row r="1774">
+      <c r="A1774" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B1774" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C1774" t="inlineStr">
+        <is>
+          <t>7203</t>
+        </is>
+      </c>
+      <c r="D1774" t="inlineStr">
+        <is>
+          <t>WANGZNG</t>
+        </is>
+      </c>
+      <c r="E1774" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1774" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G1774" t="n">
+        <v>0.755</v>
+      </c>
+      <c r="H1774" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="I1774" t="n">
+        <v>13100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7203.xlsx
+++ b/data/7203.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2472"/>
+  <dimension ref="A1:I2473"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87750,6 +87750,41 @@
         <v>13100</v>
       </c>
     </row>
+    <row r="2473">
+      <c r="A2473" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B2473" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C2473" t="inlineStr">
+        <is>
+          <t>7203</t>
+        </is>
+      </c>
+      <c r="D2473" t="inlineStr">
+        <is>
+          <t>WANGZNG</t>
+        </is>
+      </c>
+      <c r="E2473" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="F2473" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="G2473" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="H2473" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="I2473" t="n">
+        <v>44800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7203.xlsx
+++ b/data/7203.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2473"/>
+  <dimension ref="A1:I2474"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87785,6 +87785,41 @@
         <v>44800</v>
       </c>
     </row>
+    <row r="2474">
+      <c r="A2474" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B2474" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C2474" t="inlineStr">
+        <is>
+          <t>7203</t>
+        </is>
+      </c>
+      <c r="D2474" t="inlineStr">
+        <is>
+          <t>WANGZNG</t>
+        </is>
+      </c>
+      <c r="E2474" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="F2474" t="n">
+        <v>0.755</v>
+      </c>
+      <c r="G2474" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="H2474" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="I2474" t="n">
+        <v>73100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7203.xlsx
+++ b/data/7203.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2474"/>
+  <dimension ref="A1:I2475"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87820,6 +87820,41 @@
         <v>73100</v>
       </c>
     </row>
+    <row r="2475">
+      <c r="A2475" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B2475" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C2475" t="inlineStr">
+        <is>
+          <t>7203</t>
+        </is>
+      </c>
+      <c r="D2475" t="inlineStr">
+        <is>
+          <t>WANGZNG</t>
+        </is>
+      </c>
+      <c r="E2475" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F2475" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G2475" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="H2475" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="I2475" t="n">
+        <v>300000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7203.xlsx
+++ b/data/7203.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2475"/>
+  <dimension ref="A1:I2476"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87855,6 +87855,41 @@
         <v>300000</v>
       </c>
     </row>
+    <row r="2476">
+      <c r="A2476" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B2476" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C2476" t="inlineStr">
+        <is>
+          <t>7203</t>
+        </is>
+      </c>
+      <c r="D2476" t="inlineStr">
+        <is>
+          <t>WANGZNG</t>
+        </is>
+      </c>
+      <c r="E2476" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F2476" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="G2476" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="H2476" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="I2476" t="n">
+        <v>26700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7203.xlsx
+++ b/data/7203.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2476"/>
+  <dimension ref="A1:I2477"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87890,6 +87890,41 @@
         <v>26700</v>
       </c>
     </row>
+    <row r="2477">
+      <c r="A2477" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B2477" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C2477" t="inlineStr">
+        <is>
+          <t>7203</t>
+        </is>
+      </c>
+      <c r="D2477" t="inlineStr">
+        <is>
+          <t>WANGZNG</t>
+        </is>
+      </c>
+      <c r="E2477" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F2477" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="G2477" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="H2477" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="I2477" t="n">
+        <v>21600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7203.xlsx
+++ b/data/7203.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2477"/>
+  <dimension ref="A1:I2478"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87925,6 +87925,43 @@
         <v>21600</v>
       </c>
     </row>
+    <row r="2478">
+      <c r="A2478" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B2478" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C2478" t="inlineStr">
+        <is>
+          <t>7203</t>
+        </is>
+      </c>
+      <c r="D2478" t="inlineStr">
+        <is>
+          <t>WANGZNG</t>
+        </is>
+      </c>
+      <c r="E2478" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="F2478" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="G2478" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="H2478" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="I2478" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7203.xlsx
+++ b/data/7203.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2478"/>
+  <dimension ref="A1:I2479"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87962,6 +87962,41 @@
         </is>
       </c>
     </row>
+    <row r="2479">
+      <c r="A2479" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B2479" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C2479" t="inlineStr">
+        <is>
+          <t>7203</t>
+        </is>
+      </c>
+      <c r="D2479" t="inlineStr">
+        <is>
+          <t>WANGZNG</t>
+        </is>
+      </c>
+      <c r="E2479" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="F2479" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="G2479" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="H2479" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="I2479" t="n">
+        <v>117800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7203.xlsx
+++ b/data/7203.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2479"/>
+  <dimension ref="A1:I2480"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87997,6 +87997,41 @@
         <v>117800</v>
       </c>
     </row>
+    <row r="2480">
+      <c r="A2480" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B2480" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C2480" t="inlineStr">
+        <is>
+          <t>7203</t>
+        </is>
+      </c>
+      <c r="D2480" t="inlineStr">
+        <is>
+          <t>WANGZNG</t>
+        </is>
+      </c>
+      <c r="E2480" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="F2480" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="G2480" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="H2480" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="I2480" t="n">
+        <v>16000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7203.xlsx
+++ b/data/7203.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2480"/>
+  <dimension ref="A1:I2481"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88032,6 +88032,41 @@
         <v>16000</v>
       </c>
     </row>
+    <row r="2481">
+      <c r="A2481" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B2481" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C2481" t="inlineStr">
+        <is>
+          <t>7203</t>
+        </is>
+      </c>
+      <c r="D2481" t="inlineStr">
+        <is>
+          <t>WANGZNG</t>
+        </is>
+      </c>
+      <c r="E2481" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="F2481" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="G2481" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="H2481" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="I2481" t="n">
+        <v>3100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7203.xlsx
+++ b/data/7203.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2481"/>
+  <dimension ref="A1:I2482"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88067,6 +88067,41 @@
         <v>3100</v>
       </c>
     </row>
+    <row r="2482">
+      <c r="A2482" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B2482" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C2482" t="inlineStr">
+        <is>
+          <t>7203</t>
+        </is>
+      </c>
+      <c r="D2482" t="inlineStr">
+        <is>
+          <t>WANGZNG</t>
+        </is>
+      </c>
+      <c r="E2482" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="F2482" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G2482" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="H2482" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I2482" t="n">
+        <v>19000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7203.xlsx
+++ b/data/7203.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2482"/>
+  <dimension ref="A1:I2484"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88102,6 +88102,78 @@
         <v>19000</v>
       </c>
     </row>
+    <row r="2483">
+      <c r="A2483" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B2483" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C2483" t="inlineStr">
+        <is>
+          <t>7203</t>
+        </is>
+      </c>
+      <c r="D2483" t="inlineStr">
+        <is>
+          <t>WANGZNG</t>
+        </is>
+      </c>
+      <c r="E2483" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="F2483" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="G2483" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="H2483" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="I2483" t="n">
+        <v>22700</v>
+      </c>
+    </row>
+    <row r="2484">
+      <c r="A2484" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B2484" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C2484" t="inlineStr">
+        <is>
+          <t>7203</t>
+        </is>
+      </c>
+      <c r="D2484" t="inlineStr">
+        <is>
+          <t>WANGZNG</t>
+        </is>
+      </c>
+      <c r="E2484" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="F2484" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="G2484" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="H2484" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="I2484" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7203.xlsx
+++ b/data/7203.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2484"/>
+  <dimension ref="A1:I2485"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88174,6 +88174,43 @@
         </is>
       </c>
     </row>
+    <row r="2485">
+      <c r="A2485" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B2485" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C2485" t="inlineStr">
+        <is>
+          <t>7203</t>
+        </is>
+      </c>
+      <c r="D2485" t="inlineStr">
+        <is>
+          <t>WANGZNG</t>
+        </is>
+      </c>
+      <c r="E2485" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="F2485" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="G2485" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="H2485" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="I2485" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7203.xlsx
+++ b/data/7203.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2485"/>
+  <dimension ref="A1:I2488"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88211,6 +88211,113 @@
         </is>
       </c>
     </row>
+    <row r="2486">
+      <c r="A2486" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B2486" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C2486" t="inlineStr">
+        <is>
+          <t>7203</t>
+        </is>
+      </c>
+      <c r="D2486" t="inlineStr">
+        <is>
+          <t>WANGZNG</t>
+        </is>
+      </c>
+      <c r="E2486" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="F2486" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="G2486" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="H2486" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="I2486" t="n">
+        <v>26100</v>
+      </c>
+    </row>
+    <row r="2487">
+      <c r="A2487" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B2487" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C2487" t="inlineStr">
+        <is>
+          <t>7203</t>
+        </is>
+      </c>
+      <c r="D2487" t="inlineStr">
+        <is>
+          <t>WANGZNG</t>
+        </is>
+      </c>
+      <c r="E2487" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="F2487" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G2487" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="H2487" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="I2487" t="n">
+        <v>39900</v>
+      </c>
+    </row>
+    <row r="2488">
+      <c r="A2488" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B2488" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C2488" t="inlineStr">
+        <is>
+          <t>7203</t>
+        </is>
+      </c>
+      <c r="D2488" t="inlineStr">
+        <is>
+          <t>WANGZNG</t>
+        </is>
+      </c>
+      <c r="E2488" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="F2488" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="G2488" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="H2488" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="I2488" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7203.xlsx
+++ b/data/7203.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2488"/>
+  <dimension ref="A1:I2489"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88318,6 +88318,41 @@
         </is>
       </c>
     </row>
+    <row r="2489">
+      <c r="A2489" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B2489" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C2489" t="inlineStr">
+        <is>
+          <t>7203</t>
+        </is>
+      </c>
+      <c r="D2489" t="inlineStr">
+        <is>
+          <t>WANGZNG</t>
+        </is>
+      </c>
+      <c r="E2489" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="F2489" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="G2489" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="H2489" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="I2489" t="n">
+        <v>2300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7203.xlsx
+++ b/data/7203.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2489"/>
+  <dimension ref="A1:I2490"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88353,6 +88353,41 @@
         <v>2300</v>
       </c>
     </row>
+    <row r="2490">
+      <c r="A2490" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B2490" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C2490" t="inlineStr">
+        <is>
+          <t>7203</t>
+        </is>
+      </c>
+      <c r="D2490" t="inlineStr">
+        <is>
+          <t>WANGZNG</t>
+        </is>
+      </c>
+      <c r="E2490" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="F2490" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="G2490" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="H2490" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="I2490" t="n">
+        <v>30000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7203.xlsx
+++ b/data/7203.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2490"/>
+  <dimension ref="A1:I2493"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88388,6 +88388,113 @@
         <v>30000</v>
       </c>
     </row>
+    <row r="2491">
+      <c r="A2491" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B2491" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C2491" t="inlineStr">
+        <is>
+          <t>7203</t>
+        </is>
+      </c>
+      <c r="D2491" t="inlineStr">
+        <is>
+          <t>WANGZNG</t>
+        </is>
+      </c>
+      <c r="E2491" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F2491" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="G2491" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="H2491" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="I2491" t="n">
+        <v>489500</v>
+      </c>
+    </row>
+    <row r="2492">
+      <c r="A2492" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B2492" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C2492" t="inlineStr">
+        <is>
+          <t>7203</t>
+        </is>
+      </c>
+      <c r="D2492" t="inlineStr">
+        <is>
+          <t>WANGZNG</t>
+        </is>
+      </c>
+      <c r="E2492" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="F2492" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="G2492" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="H2492" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="I2492" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="2493">
+      <c r="A2493" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B2493" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C2493" t="inlineStr">
+        <is>
+          <t>7203</t>
+        </is>
+      </c>
+      <c r="D2493" t="inlineStr">
+        <is>
+          <t>WANGZNG</t>
+        </is>
+      </c>
+      <c r="E2493" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="F2493" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="G2493" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="H2493" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="I2493" t="n">
+        <v>54600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
